--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T11:10:21+00:00</t>
+    <t>2022-08-27T00:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
-【JP-Core仕様】DiagnosticReportリソースの共通プロフィール</t>
+【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
